--- a/data/trans_orig/iP22_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66E2D9F-CCBB-4D1C-ADB6-91FE558034D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0230CC60-0304-425A-9ECB-F52E8814409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DDBCEF1-75CE-4125-93AB-383F12671FD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDB8AAD2-1345-4268-AB82-DD83100DD3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -104,55 +104,55 @@
     <t>15,61%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,55 +161,55 @@
     <t>21,72%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -218,103 +218,109 @@
     <t>25,22%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>14,13%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>85,87%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -326,133 +332,133 @@
     <t>31,44%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
   </si>
   <si>
     <t>24,97%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>20,91%</t>
+    <t>21,37%</t>
   </si>
   <si>
     <t>28,75%</t>
@@ -461,19 +467,19 @@
     <t>75,43%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>75,03%</t>
   </si>
   <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>75,23%</t>
@@ -482,346 +488,355 @@
     <t>71,25%</t>
   </si>
   <si>
-    <t>79,09%</t>
+    <t>78,63%</t>
   </si>
   <si>
     <t>27,56%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>72,44%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2015 (Tasa respuesta: 99,95%)</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>11,25%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>12,08%</t>
+    <t>12,17%</t>
   </si>
   <si>
     <t>15,94%</t>
@@ -830,16 +845,19 @@
     <t>85,98%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>88,75%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>86,11%</t>
@@ -848,115 +866,97 @@
     <t>84,06%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019D1342-5E11-43A9-8F93-2236BBF0EABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C090EF-E49D-43CF-BAA4-ADC0067FEA37}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1972,7 +1972,7 @@
         <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -1981,13 +1981,13 @@
         <v>72387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,13 +2002,13 @@
         <v>118250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -2017,13 +2017,13 @@
         <v>141568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>381</v>
@@ -2032,13 +2032,13 @@
         <v>259818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2106,13 @@
         <v>157029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -2121,13 +2121,13 @@
         <v>131661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -2136,13 +2136,13 @@
         <v>288690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2157,13 @@
         <v>565671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>817</v>
@@ -2172,13 +2172,13 @@
         <v>549360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1668</v>
@@ -2187,13 +2187,13 @@
         <v>1115031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2249,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DB7BBE-95C9-42DD-80D2-A24F60D32B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD02D8A-532A-4EB4-80E8-5786C46EFE8F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2286,7 +2286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2542,13 +2542,13 @@
         <v>26828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2557,13 +2557,13 @@
         <v>21111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -2572,13 +2572,13 @@
         <v>47938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,28 +2593,28 @@
         <v>58507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>102</v>
       </c>
       <c r="I8" s="7">
-        <v>71257</v>
+        <v>71258</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -2623,13 +2623,13 @@
         <v>129765</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,7 +2656,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2697,13 +2697,13 @@
         <v>137670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -2712,13 +2712,13 @@
         <v>105050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -2727,13 +2727,13 @@
         <v>242719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,16 +2745,16 @@
         <v>508</v>
       </c>
       <c r="D11" s="7">
-        <v>354477</v>
+        <v>354478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>501</v>
@@ -2763,13 +2763,13 @@
         <v>346515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1009</v>
@@ -2778,13 +2778,13 @@
         <v>700993</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,7 +2796,7 @@
         <v>705</v>
       </c>
       <c r="D12" s="7">
-        <v>492147</v>
+        <v>492148</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -2852,13 +2852,13 @@
         <v>42320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -2867,13 +2867,13 @@
         <v>41657</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -2882,13 +2882,13 @@
         <v>83977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2903,13 @@
         <v>129908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -2918,13 +2918,13 @@
         <v>125155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -2933,13 +2933,13 @@
         <v>255064</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3007,13 @@
         <v>206817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -3022,13 +3022,13 @@
         <v>167818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>536</v>
@@ -3037,13 +3037,13 @@
         <v>374635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3058,13 @@
         <v>543535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>781</v>
@@ -3073,13 +3073,13 @@
         <v>542928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>1558</v>
@@ -3088,13 +3088,13 @@
         <v>1086462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3150,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738BEBA5-D951-443A-BC49-740E24538CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D5BE4-DF0E-4712-B987-C7AF87F9CCFF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3431,13 +3431,13 @@
         <v>8067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3446,13 +3446,13 @@
         <v>10284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3461,13 +3461,13 @@
         <v>18351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3482,13 @@
         <v>60547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>74</v>
@@ -3497,13 +3497,13 @@
         <v>49094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -3512,13 +3512,13 @@
         <v>109642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3586,13 @@
         <v>82341</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -3601,13 +3601,13 @@
         <v>80078</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -3616,13 +3616,13 @@
         <v>162419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3637,13 @@
         <v>406394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>589</v>
@@ -3652,13 +3652,13 @@
         <v>392212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>1168</v>
@@ -3667,13 +3667,13 @@
         <v>798606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3741,13 @@
         <v>34120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -3756,13 +3756,13 @@
         <v>33722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -3771,13 +3771,13 @@
         <v>67841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,10 +3792,10 @@
         <v>152557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>214</v>
@@ -3902,7 +3902,7 @@
         <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -3911,13 +3911,13 @@
         <v>124084</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>372</v>
@@ -3926,13 +3926,13 @@
         <v>248611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3947,13 @@
         <v>619499</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -3962,13 +3962,13 @@
         <v>580287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>1753</v>
@@ -3977,13 +3977,13 @@
         <v>1199786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,7 +4039,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE0669B-D80A-4CEA-A51E-4BBE1FDED50C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C2800-0351-4D9E-AA48-3DD14F53DE84}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4076,7 +4076,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4332,13 +4332,13 @@
         <v>10348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4347,13 +4347,13 @@
         <v>7283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4362,13 +4362,13 @@
         <v>17631</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4383,13 @@
         <v>48409</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -4398,13 +4398,13 @@
         <v>43919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -4413,13 +4413,13 @@
         <v>92328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4487,13 @@
         <v>69011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -4502,13 +4502,13 @@
         <v>61632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -4517,13 +4517,13 @@
         <v>130642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4538,13 @@
         <v>423353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>549</v>
@@ -4553,13 +4553,13 @@
         <v>386772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1111</v>
@@ -4568,13 +4568,13 @@
         <v>810126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4642,13 @@
         <v>29553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4657,13 +4657,13 @@
         <v>29290</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4672,13 +4672,13 @@
         <v>58843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4693,13 @@
         <v>145030</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -4708,13 +4708,13 @@
         <v>122080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>381</v>
@@ -4723,13 +4723,13 @@
         <v>267109</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4797,13 @@
         <v>108912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -4812,13 +4812,13 @@
         <v>98205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
@@ -4827,13 +4827,13 @@
         <v>207117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4848,13 @@
         <v>616792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>792</v>
@@ -4863,13 +4863,13 @@
         <v>553942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>1623</v>
@@ -4878,10 +4878,10 @@
         <v>1170734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>305</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP22_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0230CC60-0304-425A-9ECB-F52E8814409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9213CD-96B5-41FD-817A-4F8F40462C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDB8AAD2-1345-4268-AB82-DD83100DD3F0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EC96E638-78B3-4AA5-9803-255F2F517953}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,139 +68,118 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>19,05%</t>
+    <t>19,07%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>78,65%</t>
@@ -209,118 +188,118 @@
     <t>76,46%</t>
   </si>
   <si>
-    <t>80,95%</t>
+    <t>80,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -329,634 +308,640 @@
     <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>75,43%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>83,15%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>83,1%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C090EF-E49D-43CF-BAA4-ADC0067FEA37}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E937C6B1-5BAA-4A70-BAA2-F81D8E537F7E}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1486,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12081</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1501,81 +1486,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13559</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>25640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>78786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I5" s="7">
+        <v>73286</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>152072</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,151 +1573,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>13559</v>
+        <v>87082</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I7" s="7">
-        <v>12081</v>
+        <v>103582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
+        <v>289</v>
+      </c>
+      <c r="N7" s="7">
+        <v>190664</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="7">
-        <v>25640</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>110</v>
+        <v>494</v>
       </c>
       <c r="D8" s="7">
-        <v>73285</v>
+        <v>329005</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="I8" s="7">
-        <v>78786</v>
+        <v>373409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>228</v>
+        <v>1058</v>
       </c>
       <c r="N8" s="7">
-        <v>152072</v>
+        <v>702414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,153 +1728,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>103582</v>
+        <v>32498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>87082</v>
+        <v>39888</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>190664</v>
+        <v>72387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>564</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>373409</v>
+        <v>141568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>494</v>
+        <v>176</v>
       </c>
       <c r="I11" s="7">
-        <v>329005</v>
+        <v>118250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1058</v>
+        <v>381</v>
       </c>
       <c r="N11" s="7">
-        <v>702414</v>
+        <v>259818</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,153 +1883,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="D13" s="7">
-        <v>39888</v>
+        <v>131661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="I13" s="7">
-        <v>32498</v>
+        <v>157029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
+        <v>436</v>
       </c>
       <c r="N13" s="7">
-        <v>72387</v>
+        <v>288690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>817</v>
       </c>
       <c r="D14" s="7">
-        <v>118250</v>
+        <v>549360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>205</v>
+        <v>850</v>
       </c>
       <c r="I14" s="7">
-        <v>141568</v>
+        <v>564945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>381</v>
+        <v>1667</v>
       </c>
       <c r="N14" s="7">
-        <v>259818</v>
+        <v>1114305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,216 +2038,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>235</v>
-      </c>
-      <c r="D16" s="7">
-        <v>157029</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>201</v>
-      </c>
-      <c r="I16" s="7">
-        <v>131661</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>436</v>
-      </c>
-      <c r="N16" s="7">
-        <v>288690</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>851</v>
-      </c>
-      <c r="D17" s="7">
-        <v>565671</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>817</v>
-      </c>
-      <c r="I17" s="7">
-        <v>549360</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1668</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1115031</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2269,8 +2104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD02D8A-532A-4EB4-80E8-5786C46EFE8F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED680B2E-C042-4176-89A8-F3C69C9E945F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2286,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2387,96 +2222,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>21111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="I4" s="7">
+        <v>26828</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>47938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>71258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="I5" s="7">
+        <v>58507</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>129765</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,151 +2324,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="I6" s="7">
+        <v>85335</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>177703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="D7" s="7">
-        <v>26828</v>
+        <v>105050</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="I7" s="7">
-        <v>21111</v>
+        <v>137670</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="N7" s="7">
-        <v>47938</v>
+        <v>242719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="D8" s="7">
-        <v>58507</v>
+        <v>346515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>102</v>
+        <v>508</v>
       </c>
       <c r="I8" s="7">
-        <v>71258</v>
+        <v>354477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>185</v>
+        <v>1009</v>
       </c>
       <c r="N8" s="7">
-        <v>129765</v>
+        <v>700993</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,153 +2479,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="D9" s="7">
-        <v>85335</v>
+        <v>451565</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>492147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>254</v>
+        <v>1359</v>
       </c>
       <c r="N9" s="7">
-        <v>177703</v>
+        <v>943712</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>137670</v>
+        <v>41657</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>105050</v>
+        <v>42320</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="7">
         <v>117</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="7">
-        <v>350</v>
-      </c>
       <c r="N10" s="7">
-        <v>242719</v>
+        <v>83977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>508</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7">
-        <v>354478</v>
+        <v>125155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>501</v>
+        <v>185</v>
       </c>
       <c r="I11" s="7">
-        <v>346515</v>
+        <v>129908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>1009</v>
+        <v>363</v>
       </c>
       <c r="N11" s="7">
-        <v>700993</v>
+        <v>255064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,153 +2634,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>492148</v>
+        <v>166812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>654</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>451565</v>
+        <v>172228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1359</v>
+        <v>480</v>
       </c>
       <c r="N12" s="7">
-        <v>943712</v>
+        <v>339041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="D13" s="7">
-        <v>42320</v>
+        <v>167818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="I13" s="7">
-        <v>41657</v>
+        <v>206817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>117</v>
+        <v>536</v>
       </c>
       <c r="N13" s="7">
-        <v>83977</v>
+        <v>374635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>185</v>
+        <v>781</v>
       </c>
       <c r="D14" s="7">
-        <v>129908</v>
+        <v>542928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>178</v>
+        <v>776</v>
       </c>
       <c r="I14" s="7">
-        <v>125155</v>
+        <v>542893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>363</v>
+        <v>1557</v>
       </c>
       <c r="N14" s="7">
-        <v>255064</v>
+        <v>1085821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,216 +2789,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>1024</v>
       </c>
       <c r="D15" s="7">
-        <v>172228</v>
+        <v>710746</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>236</v>
+        <v>1069</v>
       </c>
       <c r="I15" s="7">
-        <v>166812</v>
+        <v>749710</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>480</v>
+        <v>2093</v>
       </c>
       <c r="N15" s="7">
-        <v>339041</v>
+        <v>1460456</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>293</v>
-      </c>
-      <c r="D16" s="7">
-        <v>206817</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>243</v>
-      </c>
-      <c r="I16" s="7">
-        <v>167818</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>536</v>
-      </c>
-      <c r="N16" s="7">
-        <v>374635</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>777</v>
-      </c>
-      <c r="D17" s="7">
-        <v>543535</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>781</v>
-      </c>
-      <c r="I17" s="7">
-        <v>542928</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1558</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1086462</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D18" s="7">
-        <v>750352</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I18" s="7">
-        <v>710746</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1461097</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3170,8 +2855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D5BE4-DF0E-4712-B987-C7AF87F9CCFF}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F8CA92-2956-4DAA-B5B3-30E9EC5477E1}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3187,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3288,88 +2973,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10284</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8067</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N4" s="7">
+        <v>18351</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49094</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I5" s="7">
+        <v>60547</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="N5" s="7">
+        <v>109642</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,147 +3075,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7">
-        <v>8067</v>
+        <v>80078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="I7" s="7">
-        <v>10284</v>
+        <v>82341</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="N7" s="7">
-        <v>18351</v>
+        <v>162419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>589</v>
       </c>
       <c r="D8" s="7">
-        <v>60547</v>
+        <v>392212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>74</v>
+        <v>579</v>
       </c>
       <c r="I8" s="7">
-        <v>49094</v>
+        <v>406394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>161</v>
+        <v>1168</v>
       </c>
       <c r="N8" s="7">
-        <v>109642</v>
+        <v>798606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,153 +3230,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>82341</v>
+        <v>33722</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>80078</v>
+        <v>34120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>162419</v>
+        <v>67841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>579</v>
+        <v>204</v>
       </c>
       <c r="D11" s="7">
-        <v>406394</v>
+        <v>138981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>589</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>392212</v>
+        <v>152557</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>1168</v>
+        <v>424</v>
       </c>
       <c r="N11" s="7">
-        <v>798606</v>
+        <v>291538</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,153 +3385,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>270</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>186677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>528</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>359379</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7">
-        <v>34120</v>
+        <v>124084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="I13" s="7">
-        <v>33722</v>
+        <v>124527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="N13" s="7">
-        <v>67841</v>
+        <v>248611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>220</v>
+        <v>867</v>
       </c>
       <c r="D14" s="7">
-        <v>152557</v>
+        <v>580287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>886</v>
       </c>
       <c r="I14" s="7">
-        <v>138981</v>
+        <v>619499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>424</v>
+        <v>1753</v>
       </c>
       <c r="N14" s="7">
-        <v>291538</v>
+        <v>1199786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,216 +3540,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>270</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>186677</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1064</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744026</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>528</v>
+        <v>2125</v>
       </c>
       <c r="N15" s="7">
-        <v>359379</v>
+        <v>1448397</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>178</v>
-      </c>
-      <c r="D16" s="7">
-        <v>124527</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="7">
-        <v>194</v>
-      </c>
-      <c r="I16" s="7">
-        <v>124084</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M16" s="7">
-        <v>372</v>
-      </c>
-      <c r="N16" s="7">
-        <v>248611</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>886</v>
-      </c>
-      <c r="D17" s="7">
-        <v>619499</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="7">
-        <v>867</v>
-      </c>
-      <c r="I17" s="7">
-        <v>580287</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1753</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1199786</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744026</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1448397</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4059,8 +3606,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C2800-0351-4D9E-AA48-3DD14F53DE84}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ACB5A-92E0-4734-84D4-FF5233FA6E2A}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4076,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4177,96 +3724,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10660</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>22033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44018</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>50631</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>94649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,151 +3826,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>10348</v>
+        <v>62926</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>7283</v>
+        <v>73221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="N7" s="7">
-        <v>17631</v>
+        <v>136147</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="D8" s="7">
-        <v>48409</v>
+        <v>396045</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="I8" s="7">
-        <v>43919</v>
+        <v>443398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
-        <v>130</v>
+        <v>1111</v>
       </c>
       <c r="N8" s="7">
-        <v>92328</v>
+        <v>839443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,153 +3981,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>458971</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1297</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>975590</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>69011</v>
+        <v>29649</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>61632</v>
+        <v>32244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>130642</v>
+        <v>61893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="D11" s="7">
-        <v>423353</v>
+        <v>119902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>549</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>386772</v>
+        <v>151105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>1111</v>
+        <v>381</v>
       </c>
       <c r="N11" s="7">
-        <v>810126</v>
+        <v>271007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,153 +4136,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>448404</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>940768</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="D13" s="7">
-        <v>29553</v>
+        <v>103235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="I13" s="7">
-        <v>29290</v>
+        <v>116838</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="N13" s="7">
-        <v>58843</v>
+        <v>220073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>791</v>
       </c>
       <c r="D14" s="7">
-        <v>145030</v>
+        <v>559965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>182</v>
+        <v>831</v>
       </c>
       <c r="I14" s="7">
-        <v>122080</v>
+        <v>645134</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>381</v>
+        <v>1622</v>
       </c>
       <c r="N14" s="7">
-        <v>267109</v>
+        <v>1205099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,216 +4291,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663200</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1917</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1425172</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>146</v>
-      </c>
-      <c r="D16" s="7">
-        <v>108912</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H16" s="7">
-        <v>149</v>
-      </c>
-      <c r="I16" s="7">
-        <v>98205</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M16" s="7">
-        <v>295</v>
-      </c>
-      <c r="N16" s="7">
-        <v>207117</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>831</v>
-      </c>
-      <c r="D17" s="7">
-        <v>616792</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H17" s="7">
-        <v>792</v>
-      </c>
-      <c r="I17" s="7">
-        <v>553942</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1623</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1170734</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>977</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652147</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1377851</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
